--- a/va_facility_data_2025-02-20/Lebanon VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lebanon%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lebanon VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lebanon%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ref7cdd08191042bbb48896631a56d0a4"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R9ecf76da16e745e7b658a48c340145c7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R750d9b27c8914e2bb18b2d52851c683d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R464a59e8371e4591883ef0bf5a6f1d9c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R17f8e166733b499b8ffe11989c47ae24"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R54c48bfb18fa44b4801dcd566eb48dcd"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rb3fd906aa16949dc8969c089b141968b"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3669809b7baa4a84b695a5c8e6a2f0de"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R590fb7f272044cc882c93e45e9fa6707"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R45744aa20f3f4c458198c6c07cf28ec8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0e3faa52da604ff4947b53ff8ffb4902"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbd1e495d515c4647a6e067603cc135de"/>
   </x:sheets>
 </x:workbook>
 </file>
